--- a/maya script/Exceltest/test.xlsx
+++ b/maya script/Exceltest/test.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20378"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9D2A28-CDE0-43BC-808F-7D7E584AC0B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDED80D6-386D-4D00-A71F-9DF9E010DFDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="119">
   <si>
     <t>19CU0101</t>
     <phoneticPr fontId="1"/>
@@ -391,6 +391,206 @@
   </si>
   <si>
     <t>名前123</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0114</t>
+  </si>
+  <si>
+    <t>19CU0115</t>
+  </si>
+  <si>
+    <t>19CU0116</t>
+  </si>
+  <si>
+    <t>19CU0117</t>
+  </si>
+  <si>
+    <t>19CU0118</t>
+  </si>
+  <si>
+    <t>19CU0119</t>
+  </si>
+  <si>
+    <t>19CU0120</t>
+  </si>
+  <si>
+    <t>19CU0121</t>
+  </si>
+  <si>
+    <t>19CU0122</t>
+  </si>
+  <si>
+    <t>19CU0123</t>
+  </si>
+  <si>
+    <t>19CU0124</t>
+  </si>
+  <si>
+    <t>名前24</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0125</t>
+  </si>
+  <si>
+    <t>名前25</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0126</t>
+  </si>
+  <si>
+    <t>名前26</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0127</t>
+  </si>
+  <si>
+    <t>名前27</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0128</t>
+  </si>
+  <si>
+    <t>名前28</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0129</t>
+  </si>
+  <si>
+    <t>名前29</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0130</t>
+  </si>
+  <si>
+    <t>名前30</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0131</t>
+  </si>
+  <si>
+    <t>名前31</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0132</t>
+  </si>
+  <si>
+    <t>名前32</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0133</t>
+  </si>
+  <si>
+    <t>名前33</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0134</t>
+  </si>
+  <si>
+    <t>名前34</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0135</t>
+  </si>
+  <si>
+    <t>名前35</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0136</t>
+  </si>
+  <si>
+    <t>名前36</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0137</t>
+  </si>
+  <si>
+    <t>名前37</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0138</t>
+  </si>
+  <si>
+    <t>名前38</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0139</t>
+  </si>
+  <si>
+    <t>名前39</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19CU0140</t>
+  </si>
+  <si>
+    <t>名前40</t>
     <rPh sb="0" eb="2">
       <t>ナマエ</t>
     </rPh>
@@ -719,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -832,6 +1032,222 @@
       </c>
       <c r="B13" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1086,7 +1502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0EEAFB3-A8CC-48E9-9B3C-7C9218A1B9E9}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
